--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tnfsf10-Tnfrsf11b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tnfsf10-Tnfrsf11b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,7 +534,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>24.398486</v>
+        <v>15.9821925</v>
       </c>
       <c r="H2">
-        <v>48.796972</v>
+        <v>31.964385</v>
       </c>
       <c r="I2">
-        <v>0.4878637722507928</v>
+        <v>0.790742371417803</v>
       </c>
       <c r="J2">
-        <v>0.3884708362220679</v>
+        <v>0.7176090436508664</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.102926</v>
+        <v>2.169947333333333</v>
       </c>
       <c r="N2">
-        <v>0.205852</v>
+        <v>6.509842000000001</v>
       </c>
       <c r="O2">
-        <v>0.03821605677617539</v>
+        <v>0.7459944226682381</v>
       </c>
       <c r="P2">
-        <v>0.02724178813968781</v>
+        <v>0.8149992037602547</v>
       </c>
       <c r="Q2">
-        <v>2.511238570036</v>
+        <v>34.68051599619501</v>
       </c>
       <c r="R2">
-        <v>10.044954280144</v>
+        <v>208.08309597717</v>
       </c>
       <c r="S2">
-        <v>0.0186442296193754</v>
+        <v>0.5898893988451375</v>
       </c>
       <c r="T2">
-        <v>0.01058264021880893</v>
+        <v>0.584850799186614</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -605,51 +605,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>24.398486</v>
+        <v>15.9821925</v>
       </c>
       <c r="H3">
-        <v>48.796972</v>
+        <v>31.964385</v>
       </c>
       <c r="I3">
-        <v>0.4878637722507928</v>
+        <v>0.790742371417803</v>
       </c>
       <c r="J3">
-        <v>0.3884708362220679</v>
+        <v>0.7176090436508664</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.169947333333333</v>
+        <v>0.7388509999999999</v>
       </c>
       <c r="N3">
-        <v>6.509842000000001</v>
+        <v>1.477702</v>
       </c>
       <c r="O3">
-        <v>0.8056937070514454</v>
+        <v>0.2540055773317618</v>
       </c>
       <c r="P3">
-        <v>0.8614914433031574</v>
+        <v>0.1850007962397452</v>
       </c>
       <c r="Q3">
-        <v>52.94342963307066</v>
+        <v>11.8084589108175</v>
       </c>
       <c r="R3">
-        <v>317.660577798424</v>
+        <v>47.23383564327</v>
       </c>
       <c r="S3">
-        <v>0.3930687712008433</v>
+        <v>0.2008529725726655</v>
       </c>
       <c r="T3">
-        <v>0.3346643013781337</v>
+        <v>0.1327582444642524</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>24.398486</v>
+        <v>1.348156333333334</v>
       </c>
       <c r="H4">
-        <v>48.796972</v>
+        <v>4.044469</v>
       </c>
       <c r="I4">
-        <v>0.4878637722507928</v>
+        <v>0.06670200825462028</v>
       </c>
       <c r="J4">
-        <v>0.3884708362220679</v>
+        <v>0.09079941726285602</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4203924999999999</v>
+        <v>2.169947333333333</v>
       </c>
       <c r="N4">
-        <v>0.8407849999999999</v>
+        <v>6.509842000000001</v>
       </c>
       <c r="O4">
-        <v>0.1560902361723793</v>
+        <v>0.7459944226682381</v>
       </c>
       <c r="P4">
-        <v>0.1112667685571547</v>
+        <v>0.8149992037602547</v>
       </c>
       <c r="Q4">
-        <v>10.256940525755</v>
+        <v>2.925428240433112</v>
       </c>
       <c r="R4">
-        <v>41.02776210302</v>
+        <v>26.328854163898</v>
       </c>
       <c r="S4">
-        <v>0.07615077143057411</v>
+        <v>0.04975932613871751</v>
       </c>
       <c r="T4">
-        <v>0.04322389462512517</v>
+        <v>0.07400145277112279</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,51 +729,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.348156333333333</v>
+        <v>1.348156333333334</v>
       </c>
       <c r="H5">
-        <v>4.044468999999999</v>
+        <v>4.044469</v>
       </c>
       <c r="I5">
-        <v>0.02695727244566721</v>
+        <v>0.06670200825462028</v>
       </c>
       <c r="J5">
-        <v>0.03219786372204059</v>
+        <v>0.09079941726285602</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.102926</v>
+        <v>0.7388509999999999</v>
       </c>
       <c r="N5">
-        <v>0.205852</v>
+        <v>1.477702</v>
       </c>
       <c r="O5">
-        <v>0.03821605677617539</v>
+        <v>0.2540055773317618</v>
       </c>
       <c r="P5">
-        <v>0.02724178813968781</v>
+        <v>0.1850007962397452</v>
       </c>
       <c r="Q5">
-        <v>0.1387603387646666</v>
+        <v>0.9960866550396666</v>
       </c>
       <c r="R5">
-        <v>0.8325620325879999</v>
+        <v>5.976519930238</v>
       </c>
       <c r="S5">
-        <v>0.001030200654314447</v>
+        <v>0.01694268211590277</v>
       </c>
       <c r="T5">
-        <v>0.0008771273820663695</v>
+        <v>0.01679796449173323</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.348156333333333</v>
+        <v>1.508377</v>
       </c>
       <c r="H6">
-        <v>4.044468999999999</v>
+        <v>4.525131</v>
       </c>
       <c r="I6">
-        <v>0.02695727244566721</v>
+        <v>0.07462916029650322</v>
       </c>
       <c r="J6">
-        <v>0.03219786372204059</v>
+        <v>0.1015904084907277</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -815,27 +815,27 @@
         <v>6.509842000000001</v>
       </c>
       <c r="O6">
-        <v>0.8056937070514454</v>
+        <v>0.7459944226682381</v>
       </c>
       <c r="P6">
-        <v>0.8614914433031574</v>
+        <v>0.8149992037602547</v>
       </c>
       <c r="Q6">
-        <v>2.925428240433111</v>
+        <v>3.273098648811334</v>
       </c>
       <c r="R6">
-        <v>26.328854163898</v>
+        <v>29.457887839302</v>
       </c>
       <c r="S6">
-        <v>0.0217193047687454</v>
+        <v>0.05567293734960532</v>
       </c>
       <c r="T6">
-        <v>0.02773818408917912</v>
+        <v>0.08279610202962208</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.348156333333333</v>
+        <v>1.508377</v>
       </c>
       <c r="H7">
-        <v>4.044468999999999</v>
+        <v>4.525131</v>
       </c>
       <c r="I7">
-        <v>0.02695727244566721</v>
+        <v>0.07462916029650322</v>
       </c>
       <c r="J7">
-        <v>0.03219786372204059</v>
+        <v>0.1015904084907277</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,33 +871,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4203924999999999</v>
+        <v>0.7388509999999999</v>
       </c>
       <c r="N7">
-        <v>0.8407849999999999</v>
+        <v>1.477702</v>
       </c>
       <c r="O7">
-        <v>0.1560902361723793</v>
+        <v>0.2540055773317618</v>
       </c>
       <c r="P7">
-        <v>0.1112667685571547</v>
+        <v>0.1850007962397452</v>
       </c>
       <c r="Q7">
-        <v>0.5667548113608332</v>
+        <v>1.114465854827</v>
       </c>
       <c r="R7">
-        <v>3.400528868164999</v>
+        <v>6.686795128961999</v>
       </c>
       <c r="S7">
-        <v>0.004207767022607368</v>
+        <v>0.0189562229468979</v>
       </c>
       <c r="T7">
-        <v>0.003582552250795097</v>
+        <v>0.0187943064611056</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>2</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>1.451834333333333</v>
+        <v>0.1098025</v>
       </c>
       <c r="H8">
-        <v>4.355503</v>
+        <v>0.219605</v>
       </c>
       <c r="I8">
-        <v>0.02903038223532456</v>
+        <v>0.005432639435271682</v>
       </c>
       <c r="J8">
-        <v>0.03467399355389767</v>
+        <v>0.00493019133735714</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.102926</v>
+        <v>2.169947333333333</v>
       </c>
       <c r="N8">
-        <v>0.205852</v>
+        <v>6.509842000000001</v>
       </c>
       <c r="O8">
-        <v>0.03821605677617539</v>
+        <v>0.7459944226682381</v>
       </c>
       <c r="P8">
-        <v>0.02724178813968781</v>
+        <v>0.8149992037602547</v>
       </c>
       <c r="Q8">
-        <v>0.1494315005926667</v>
+        <v>0.2382656420683333</v>
       </c>
       <c r="R8">
-        <v>0.896589003556</v>
+        <v>1.42959385241</v>
       </c>
       <c r="S8">
-        <v>0.001109426735739237</v>
+        <v>0.004052718719080202</v>
       </c>
       <c r="T8">
-        <v>0.000944581586352181</v>
+        <v>0.004018102014331774</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,60 +968,60 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>2</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>1.451834333333333</v>
+        <v>0.1098025</v>
       </c>
       <c r="H9">
-        <v>4.355503</v>
+        <v>0.219605</v>
       </c>
       <c r="I9">
-        <v>0.02903038223532456</v>
+        <v>0.005432639435271682</v>
       </c>
       <c r="J9">
-        <v>0.03467399355389767</v>
+        <v>0.00493019133735714</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.169947333333333</v>
+        <v>0.7388509999999999</v>
       </c>
       <c r="N9">
-        <v>6.509842000000001</v>
+        <v>1.477702</v>
       </c>
       <c r="O9">
-        <v>0.8056937070514454</v>
+        <v>0.2540055773317618</v>
       </c>
       <c r="P9">
-        <v>0.8614914433031574</v>
+        <v>0.1850007962397452</v>
       </c>
       <c r="Q9">
-        <v>3.150404040058445</v>
+        <v>0.08112768692749998</v>
       </c>
       <c r="R9">
-        <v>28.353636360526</v>
+        <v>0.3245107477099999</v>
       </c>
       <c r="S9">
-        <v>0.02338959628029907</v>
+        <v>0.00137992071619148</v>
       </c>
       <c r="T9">
-        <v>0.02987134875183168</v>
+        <v>0.0009120893230253654</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>1.451834333333333</v>
+        <v>0.573084</v>
       </c>
       <c r="H10">
-        <v>4.355503</v>
+        <v>1.719252</v>
       </c>
       <c r="I10">
-        <v>0.02903038223532456</v>
+        <v>0.02835416987885738</v>
       </c>
       <c r="J10">
-        <v>0.03467399355389767</v>
+        <v>0.03859766998535524</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4203924999999999</v>
+        <v>2.169947333333333</v>
       </c>
       <c r="N10">
-        <v>0.8407849999999999</v>
+        <v>6.509842000000001</v>
       </c>
       <c r="O10">
-        <v>0.1560902361723793</v>
+        <v>0.7459944226682381</v>
       </c>
       <c r="P10">
-        <v>0.1112667685571547</v>
+        <v>0.8149992037602547</v>
       </c>
       <c r="Q10">
-        <v>0.6103402649758332</v>
+        <v>1.243562097576</v>
       </c>
       <c r="R10">
-        <v>3.662041589854999</v>
+        <v>11.192058878184</v>
       </c>
       <c r="S10">
-        <v>0.004531359219286255</v>
+        <v>0.02115205258901536</v>
       </c>
       <c r="T10">
-        <v>0.003858063215713806</v>
+        <v>0.0314570703050656</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.021128</v>
+        <v>0.573084</v>
       </c>
       <c r="H11">
-        <v>0.042256</v>
+        <v>1.719252</v>
       </c>
       <c r="I11">
-        <v>0.0004224682539775112</v>
+        <v>0.02835416987885738</v>
       </c>
       <c r="J11">
-        <v>0.0003363984071675534</v>
+        <v>0.03859766998535524</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.102926</v>
+        <v>0.7388509999999999</v>
       </c>
       <c r="N11">
-        <v>0.205852</v>
+        <v>1.477702</v>
       </c>
       <c r="O11">
-        <v>0.03821605677617539</v>
+        <v>0.2540055773317618</v>
       </c>
       <c r="P11">
-        <v>0.02724178813968781</v>
+        <v>0.1850007962397452</v>
       </c>
       <c r="Q11">
-        <v>0.002174620528</v>
+        <v>0.423423686484</v>
       </c>
       <c r="R11">
-        <v>0.008698482112</v>
+        <v>2.540542118904</v>
       </c>
       <c r="S11">
-        <v>1.614507078013625E-05</v>
+        <v>0.007202117289842019</v>
       </c>
       <c r="T11">
-        <v>9.164094138586924E-06</v>
+        <v>0.007140599680289636</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,22 +1157,22 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.021128</v>
+        <v>0.6900180000000001</v>
       </c>
       <c r="H12">
-        <v>0.042256</v>
+        <v>2.070054</v>
       </c>
       <c r="I12">
-        <v>0.0004224682539775112</v>
+        <v>0.03413965071694448</v>
       </c>
       <c r="J12">
-        <v>0.0003363984071675534</v>
+        <v>0.04647326927283759</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1187,27 +1187,27 @@
         <v>6.509842000000001</v>
       </c>
       <c r="O12">
-        <v>0.8056937070514454</v>
+        <v>0.7459944226682381</v>
       </c>
       <c r="P12">
-        <v>0.8614914433031574</v>
+        <v>0.8149992037602547</v>
       </c>
       <c r="Q12">
-        <v>0.04584664725866667</v>
+        <v>1.497302719052</v>
       </c>
       <c r="R12">
-        <v>0.275079883552</v>
+        <v>13.475724471468</v>
       </c>
       <c r="S12">
-        <v>0.0003403800136586925</v>
+        <v>0.0254679890266823</v>
       </c>
       <c r="T12">
-        <v>0.0002898043493156588</v>
+        <v>0.03787567745349855</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,22 +1219,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.021128</v>
+        <v>0.6900180000000001</v>
       </c>
       <c r="H13">
-        <v>0.042256</v>
+        <v>2.070054</v>
       </c>
       <c r="I13">
-        <v>0.0004224682539775112</v>
+        <v>0.03413965071694448</v>
       </c>
       <c r="J13">
-        <v>0.0003363984071675534</v>
+        <v>0.04647326927283759</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1243,400 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.4203924999999999</v>
+        <v>0.7388509999999999</v>
       </c>
       <c r="N13">
-        <v>0.8407849999999999</v>
+        <v>1.477702</v>
       </c>
       <c r="O13">
-        <v>0.1560902361723793</v>
+        <v>0.2540055773317618</v>
       </c>
       <c r="P13">
-        <v>0.1112667685571547</v>
+        <v>0.1850007962397452</v>
       </c>
       <c r="Q13">
-        <v>0.008882052739999998</v>
+        <v>0.5098204893180001</v>
       </c>
       <c r="R13">
-        <v>0.03552821095999999</v>
+        <v>3.058922935908</v>
       </c>
       <c r="S13">
-        <v>6.594316953868244E-05</v>
+        <v>0.00867166169026218</v>
       </c>
       <c r="T13">
-        <v>3.742996371330765E-05</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>19.234617</v>
-      </c>
-      <c r="H14">
-        <v>57.703851</v>
-      </c>
-      <c r="I14">
-        <v>0.3846088157855052</v>
-      </c>
-      <c r="J14">
-        <v>0.4593781608252989</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.5</v>
-      </c>
-      <c r="M14">
-        <v>0.102926</v>
-      </c>
-      <c r="N14">
-        <v>0.205852</v>
-      </c>
-      <c r="O14">
-        <v>0.03821605677617539</v>
-      </c>
-      <c r="P14">
-        <v>0.02724178813968781</v>
-      </c>
-      <c r="Q14">
-        <v>1.979742189342</v>
-      </c>
-      <c r="R14">
-        <v>11.878453136052</v>
-      </c>
-      <c r="S14">
-        <v>0.01469823234067645</v>
-      </c>
-      <c r="T14">
-        <v>0.01251428253320223</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>19.234617</v>
-      </c>
-      <c r="H15">
-        <v>57.703851</v>
-      </c>
-      <c r="I15">
-        <v>0.3846088157855052</v>
-      </c>
-      <c r="J15">
-        <v>0.4593781608252989</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>2.169947333333333</v>
-      </c>
-      <c r="N15">
-        <v>6.509842000000001</v>
-      </c>
-      <c r="O15">
-        <v>0.8056937070514454</v>
-      </c>
-      <c r="P15">
-        <v>0.8614914433031574</v>
-      </c>
-      <c r="Q15">
-        <v>41.738105866838</v>
-      </c>
-      <c r="R15">
-        <v>375.642952801542</v>
-      </c>
-      <c r="S15">
-        <v>0.3098769025548901</v>
-      </c>
-      <c r="T15">
-        <v>0.3957503547913367</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>19.234617</v>
-      </c>
-      <c r="H16">
-        <v>57.703851</v>
-      </c>
-      <c r="I16">
-        <v>0.3846088157855052</v>
-      </c>
-      <c r="J16">
-        <v>0.4593781608252989</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.4203924999999999</v>
-      </c>
-      <c r="N16">
-        <v>0.8407849999999999</v>
-      </c>
-      <c r="O16">
-        <v>0.1560902361723793</v>
-      </c>
-      <c r="P16">
-        <v>0.1112667685571547</v>
-      </c>
-      <c r="Q16">
-        <v>8.086088727172498</v>
-      </c>
-      <c r="R16">
-        <v>48.516532363035</v>
-      </c>
-      <c r="S16">
-        <v>0.06003368088993863</v>
-      </c>
-      <c r="T16">
-        <v>0.05111352350075993</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>3.556636666666666</v>
-      </c>
-      <c r="H17">
-        <v>10.66991</v>
-      </c>
-      <c r="I17">
-        <v>0.07111728902873259</v>
-      </c>
-      <c r="J17">
-        <v>0.08494274726952739</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.5</v>
-      </c>
-      <c r="M17">
-        <v>0.102926</v>
-      </c>
-      <c r="N17">
-        <v>0.205852</v>
-      </c>
-      <c r="O17">
-        <v>0.03821605677617539</v>
-      </c>
-      <c r="P17">
-        <v>0.02724178813968781</v>
-      </c>
-      <c r="Q17">
-        <v>0.3660703855533333</v>
-      </c>
-      <c r="R17">
-        <v>2.19642231332</v>
-      </c>
-      <c r="S17">
-        <v>0.00271782235528972</v>
-      </c>
-      <c r="T17">
-        <v>0.00231399232511951</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>3.556636666666666</v>
-      </c>
-      <c r="H18">
-        <v>10.66991</v>
-      </c>
-      <c r="I18">
-        <v>0.07111728902873259</v>
-      </c>
-      <c r="J18">
-        <v>0.08494274726952739</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>2.169947333333333</v>
-      </c>
-      <c r="N18">
-        <v>6.509842000000001</v>
-      </c>
-      <c r="O18">
-        <v>0.8056937070514454</v>
-      </c>
-      <c r="P18">
-        <v>0.8614914433031574</v>
-      </c>
-      <c r="Q18">
-        <v>7.717714250468889</v>
-      </c>
-      <c r="R18">
-        <v>69.45942825422</v>
-      </c>
-      <c r="S18">
-        <v>0.05729875223300864</v>
-      </c>
-      <c r="T18">
-        <v>0.07317744994336048</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>3.556636666666666</v>
-      </c>
-      <c r="H19">
-        <v>10.66991</v>
-      </c>
-      <c r="I19">
-        <v>0.07111728902873259</v>
-      </c>
-      <c r="J19">
-        <v>0.08494274726952739</v>
-      </c>
-      <c r="K19">
-        <v>2</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0.4203924999999999</v>
-      </c>
-      <c r="N19">
-        <v>0.8407849999999999</v>
-      </c>
-      <c r="O19">
-        <v>0.1560902361723793</v>
-      </c>
-      <c r="P19">
-        <v>0.1112667685571547</v>
-      </c>
-      <c r="Q19">
-        <v>1.495183379891666</v>
-      </c>
-      <c r="R19">
-        <v>8.971100279349999</v>
-      </c>
-      <c r="S19">
-        <v>0.01110071444043423</v>
-      </c>
-      <c r="T19">
-        <v>0.009451305001047388</v>
+        <v>0.008597591819339041</v>
       </c>
     </row>
   </sheetData>
